--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>2123.782733832367</v>
+        <v>1601.117356263837</v>
       </c>
       <c r="R2">
-        <v>19114.0446044913</v>
+        <v>14410.05620637453</v>
       </c>
       <c r="S2">
-        <v>0.00132859645975152</v>
+        <v>0.001172511848978504</v>
       </c>
       <c r="T2">
-        <v>0.001475164645298285</v>
+        <v>0.001246784906088708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>2272.753428969657</v>
+        <v>1942.34930128439</v>
       </c>
       <c r="R3">
-        <v>20454.78086072691</v>
+        <v>17481.14371155951</v>
       </c>
       <c r="S3">
-        <v>0.001421789579279795</v>
+        <v>0.001422398902679676</v>
       </c>
       <c r="T3">
-        <v>0.001578638649089383</v>
+        <v>0.001512501117872007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1141.22374568363</v>
+        <v>1096.552435713121</v>
       </c>
       <c r="R4">
-        <v>10271.01371115267</v>
+        <v>9868.971921418093</v>
       </c>
       <c r="S4">
-        <v>0.0007139269964605133</v>
+        <v>0.0008030146690184334</v>
       </c>
       <c r="T4">
-        <v>0.0007926860385428917</v>
+        <v>0.0008538818346034108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>2600.676833824287</v>
+        <v>1195.873074001138</v>
       </c>
       <c r="R5">
-        <v>15604.06100294572</v>
+        <v>7175.238444006826</v>
       </c>
       <c r="S5">
-        <v>0.001626931973470628</v>
+        <v>0.0008757480166304728</v>
       </c>
       <c r="T5">
-        <v>0.001204274636317133</v>
+        <v>0.0006208149962397602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1303.855633310417</v>
+        <v>1179.68403170229</v>
       </c>
       <c r="R6">
-        <v>11734.70069979375</v>
+        <v>10617.15628532061</v>
       </c>
       <c r="S6">
-        <v>0.000815666287726788</v>
+        <v>0.0008638926433533342</v>
       </c>
       <c r="T6">
-        <v>0.0009056490111687422</v>
+        <v>0.0009186161394892301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>348043.4969322916</v>
+        <v>307023.4808439335</v>
       </c>
       <c r="R7">
-        <v>3132391.472390625</v>
+        <v>2763211.327595402</v>
       </c>
       <c r="S7">
-        <v>0.2177291257234038</v>
+        <v>0.2248359046236063</v>
       </c>
       <c r="T7">
-        <v>0.241748580738308</v>
+        <v>0.239078191385213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>372456.6729366262</v>
       </c>
       <c r="R8">
-        <v>3352110.056429637</v>
+        <v>3352110.056429636</v>
       </c>
       <c r="S8">
-        <v>0.2330015256228607</v>
+        <v>0.2727531873543335</v>
       </c>
       <c r="T8">
-        <v>0.2587058021844268</v>
+        <v>0.2900308064069748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>187022.6633367337</v>
+        <v>210270.2493502038</v>
       </c>
       <c r="R9">
-        <v>1683203.970030603</v>
+        <v>1892432.244151835</v>
       </c>
       <c r="S9">
-        <v>0.1169976779847469</v>
+        <v>0.1539826908291613</v>
       </c>
       <c r="T9">
-        <v>0.1299046349840273</v>
+        <v>0.1637367629947441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>426196.449013249</v>
+        <v>229315.5541603299</v>
       </c>
       <c r="R10">
-        <v>2557178.694079494</v>
+        <v>1375893.32496198</v>
       </c>
       <c r="S10">
-        <v>0.2666200663077648</v>
+        <v>0.1679297294206288</v>
       </c>
       <c r="T10">
-        <v>0.1973553833985364</v>
+        <v>0.1190448534955711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>213674.6225887926</v>
+        <v>226211.2119966048</v>
       </c>
       <c r="R11">
-        <v>1923071.603299133</v>
+        <v>2035900.907969444</v>
       </c>
       <c r="S11">
-        <v>0.1336706163901884</v>
+        <v>0.1656563932682154</v>
       </c>
       <c r="T11">
-        <v>0.148416899628736</v>
+        <v>0.1761499390422727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>210.2478611552685</v>
+        <v>148.09342710201</v>
       </c>
       <c r="R12">
-        <v>1892.230750397416</v>
+        <v>1332.84084391809</v>
       </c>
       <c r="S12">
-        <v>0.000131526902235032</v>
+        <v>0.000108450075413665</v>
       </c>
       <c r="T12">
-        <v>0.0001460366950842323</v>
+        <v>0.0001153198726373114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>224.9954949543767</v>
+        <v>179.6552660747</v>
       </c>
       <c r="R13">
-        <v>2024.95945458939</v>
+        <v>1616.8973946723</v>
       </c>
       <c r="S13">
-        <v>0.0001407527301613427</v>
+        <v>0.0001315630783589234</v>
       </c>
       <c r="T13">
-        <v>0.0001562802984602675</v>
+        <v>0.0001398969745503007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>112.9775884356191</v>
+        <v>101.4243007025733</v>
       </c>
       <c r="R14">
-        <v>1016.798295920572</v>
+        <v>912.8187063231601</v>
       </c>
       <c r="S14">
-        <v>7.067654409072691E-05</v>
+        <v>7.427387747867861E-05</v>
       </c>
       <c r="T14">
-        <v>7.847344340658926E-05</v>
+        <v>7.897877487359724E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>257.4588884056585</v>
+        <v>110.610843867875</v>
       </c>
       <c r="R15">
-        <v>1544.753330433951</v>
+        <v>663.6650632072501</v>
       </c>
       <c r="S15">
-        <v>0.0001610611868239808</v>
+        <v>8.100126112131384E-05</v>
       </c>
       <c r="T15">
-        <v>0.000119219429791824</v>
+        <v>5.742153754675658E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>129.0776376470913</v>
+        <v>109.1134578417</v>
       </c>
       <c r="R16">
-        <v>1161.698738823821</v>
+        <v>982.0211205753001</v>
       </c>
       <c r="S16">
-        <v>8.07484163417966E-05</v>
+        <v>7.990471260704257E-05</v>
       </c>
       <c r="T16">
-        <v>8.965642507697364E-05</v>
+        <v>8.496629666524013E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>8964.086960053297</v>
+        <v>2727.745305882635</v>
       </c>
       <c r="R17">
-        <v>53784.52176031978</v>
+        <v>16366.47183529581</v>
       </c>
       <c r="S17">
-        <v>0.005607755449890394</v>
+        <v>0.001997551072462332</v>
       </c>
       <c r="T17">
-        <v>0.00415092810584197</v>
+        <v>0.001416057630722221</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>9592.864209457028</v>
+        <v>3309.085475986714</v>
       </c>
       <c r="R18">
-        <v>57557.18525674217</v>
+        <v>19854.51285592029</v>
       </c>
       <c r="S18">
-        <v>0.006001106056909706</v>
+        <v>0.002423271420235448</v>
       </c>
       <c r="T18">
-        <v>0.004442090961411639</v>
+        <v>0.001717849437364105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>4816.890510605909</v>
+        <v>1868.142736364011</v>
       </c>
       <c r="R19">
-        <v>28901.34306363546</v>
+        <v>11208.85641818407</v>
       </c>
       <c r="S19">
-        <v>0.003013351402407079</v>
+        <v>0.001368056804456365</v>
       </c>
       <c r="T19">
-        <v>0.002230518991207852</v>
+        <v>0.0009698111372060673</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>10976.96714547124</v>
+        <v>2037.350448595419</v>
       </c>
       <c r="R20">
-        <v>43907.86858188496</v>
+        <v>8149.401794381676</v>
       </c>
       <c r="S20">
-        <v>0.006866973469534274</v>
+        <v>0.001491969050334973</v>
       </c>
       <c r="T20">
-        <v>0.003388677630645501</v>
+        <v>0.00070510142398977</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>5503.32908077615</v>
+        <v>2009.769969272865</v>
       </c>
       <c r="R21">
-        <v>33019.9744846569</v>
+        <v>12058.61981563719</v>
       </c>
       <c r="S21">
-        <v>0.003442773790882464</v>
+        <v>0.001471771630901795</v>
       </c>
       <c r="T21">
-        <v>0.002548382613744227</v>
+        <v>0.001043334249296535</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>200.390997449864</v>
+        <v>148.567892468372</v>
       </c>
       <c r="R22">
-        <v>1803.518977048776</v>
+        <v>1337.111032215348</v>
       </c>
       <c r="S22">
-        <v>0.0001253606433166246</v>
+        <v>0.000108797530434256</v>
       </c>
       <c r="T22">
-        <v>0.0001391901864371363</v>
+        <v>0.0001156893372833149</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>214.44723103431</v>
+        <v>180.2308500375066</v>
       </c>
       <c r="R23">
-        <v>1930.02507930879</v>
+        <v>1622.07765033756</v>
       </c>
       <c r="S23">
-        <v>0.0001341539449478306</v>
+        <v>0.0001319845833871667</v>
       </c>
       <c r="T23">
-        <v>0.0001489535480557762</v>
+        <v>0.000140345179920261</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>107.680960518188</v>
+        <v>101.7492463732391</v>
       </c>
       <c r="R24">
-        <v>969.1286446636921</v>
+        <v>915.743217359152</v>
       </c>
       <c r="S24">
-        <v>6.736307845809997E-05</v>
+        <v>7.451183795524165E-05</v>
       </c>
       <c r="T24">
-        <v>7.479444266954353E-05</v>
+        <v>7.923180901622269E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>245.3886720485685</v>
+        <v>110.9652216116167</v>
       </c>
       <c r="R25">
-        <v>1472.332032291411</v>
+        <v>665.7913296697001</v>
       </c>
       <c r="S25">
-        <v>0.0001535102982773323</v>
+        <v>8.126077495515357E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001136301711708947</v>
+        <v>5.760550608190584E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H26">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I26">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J26">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>123.026205424609</v>
+        <v>109.46303822324</v>
       </c>
       <c r="R26">
-        <v>1107.235848821481</v>
+        <v>985.16734400916</v>
       </c>
       <c r="S26">
-        <v>7.696276006955254E-05</v>
+        <v>8.016071329176598E-05</v>
       </c>
       <c r="T26">
-        <v>8.545314254443507E-05</v>
+        <v>8.523851377753591E-05</v>
       </c>
     </row>
   </sheetData>
